--- a/biology/Botanique/Lacistématacées/Lacistématacées.xlsx
+++ b/biology/Botanique/Lacistématacées/Lacistématacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lacist%C3%A9matac%C3%A9es</t>
+          <t>Lacistématacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lacistemataceae (les Lacistématacées) sont famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend environ 15 espèces réparties en 2 genres.
 Ce sont des petits arbres ou des arbustes sempervirents, à feuilles alternes, des régions tropicales, originaires d'Amérique centrale, d'Amérique du Sud et des Caraïbes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lacist%C3%A9matac%C3%A9es</t>
+          <t>Lacistématacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Lacistema composé des mots latin lacis, déchirure, et grec στεμα / stema, couronne, bandelette, (latin stamen, étamine), en référence aux étamines profondément fendues.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lacist%C3%A9matac%C3%A9es</t>
+          <t>Lacistématacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est parfois incluse dans celle des Flacourtiaceae.
 La classification phylogénétique la situe dans l'ordre des Malpighiales.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lacist%C3%A9matac%C3%A9es</t>
+          <t>Lacistématacées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[1], NCBI  (11 décembre 2016)[2] et DELTA Angio           (11 décembre 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016), NCBI  (11 décembre 2016) et DELTA Angio           (11 décembre 2016) :
 genre Lacistema (en) Sw.
 genre Lozania (en) S.Mutis ex Caldas</t>
         </is>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lacist%C3%A9matac%C3%A9es</t>
+          <t>Lacistématacées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 décembre 2016)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 décembre 2016) :
 genre Lacistema
 Lacistema aggregatum
 Lacistema grandifolium
